--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-qat/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-qat/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06</v>
+        <v>0.033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.226</v>
+        <v>0.457</v>
       </c>
       <c r="D4" t="n">
-        <v>276.67</v>
+        <v>1284.85</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.028</v>
+        <v>0.022</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144</v>
+        <v>0.529</v>
       </c>
       <c r="D5" t="n">
-        <v>414.29</v>
+        <v>2304.55</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.057</v>
+        <v>0.022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.159</v>
+        <v>0.254</v>
       </c>
       <c r="D6" t="n">
-        <v>178.95</v>
+        <v>1054.55</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.420209344476461</v>
+        <v>1.287013094406575</v>
       </c>
       <c r="C4" t="n">
-        <v>2.167991310590878</v>
+        <v>1.98274306114763</v>
       </c>
       <c r="D4" t="n">
-        <v>52.65</v>
+        <v>54.06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1509259884281524</v>
+        <v>0.1401765262748924</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1805238442645636</v>
+        <v>0.1631108581259805</v>
       </c>
       <c r="G4" t="n">
-        <v>19.61</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="5">
@@ -661,10 +661,10 @@
         <v>42.655</v>
       </c>
       <c r="C5" t="n">
-        <v>42.903</v>
+        <v>42.563</v>
       </c>
       <c r="D5" t="n">
-        <v>0.58</v>
+        <v>-0.22</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.62057512287129</v>
+        <v>11.21049088750601</v>
       </c>
       <c r="C6" t="n">
-        <v>9.179047337742311</v>
+        <v>9.691535003361754</v>
       </c>
       <c r="D6" t="n">
-        <v>-13.57</v>
+        <v>-13.55</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5294634598604118</v>
+        <v>1.043538797512789</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4456024231435876</v>
+        <v>0.9132244439094046</v>
       </c>
       <c r="G6" t="n">
-        <v>-15.84</v>
+        <v>-12.49</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-qat/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-qat/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.033</v>
+        <v>0.418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.457</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="n">
-        <v>1284.85</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.022</v>
+        <v>0.467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.529</v>
+        <v>0.395</v>
       </c>
       <c r="D5" t="n">
-        <v>2304.55</v>
+        <v>-15.42</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.022</v>
+        <v>0.388</v>
       </c>
       <c r="C6" t="n">
-        <v>0.254</v>
+        <v>0.295</v>
       </c>
       <c r="D6" t="n">
-        <v>1054.55</v>
+        <v>-23.97</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.287013094406575</v>
+        <v>1.407699654460885</v>
       </c>
       <c r="C4" t="n">
-        <v>1.98274306114763</v>
+        <v>2.111020655953325</v>
       </c>
       <c r="D4" t="n">
-        <v>54.06</v>
+        <v>49.96</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1401765262748924</v>
+        <v>0.236350325261244</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1631108581259805</v>
+        <v>0.2497550398036316</v>
       </c>
       <c r="G4" t="n">
-        <v>16.36</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="5">
@@ -661,10 +661,10 @@
         <v>42.655</v>
       </c>
       <c r="C5" t="n">
-        <v>42.563</v>
+        <v>39.773</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.22</v>
+        <v>-6.76</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.21049088750601</v>
+        <v>11.28866561221324</v>
       </c>
       <c r="C6" t="n">
-        <v>9.691535003361754</v>
+        <v>9.431264038907356</v>
       </c>
       <c r="D6" t="n">
-        <v>-13.55</v>
+        <v>-16.45</v>
       </c>
       <c r="E6" t="n">
-        <v>1.043538797512789</v>
+        <v>0.9637282951239894</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9132244439094046</v>
+        <v>1.083361919549711</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.49</v>
+        <v>12.41</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-qat/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-qat/0_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
